--- a/equipment_cyg/product/semikron_line/semikron_line_manual.xlsx
+++ b/equipment_cyg/product/semikron_line/semikron_line_manual.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="465" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="465" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="secs指令" sheetId="2" r:id="rId1"/>
@@ -12,9 +12,10 @@
     <sheet name="VID" sheetId="7" state="hidden" r:id="rId3"/>
     <sheet name="remote_commands" sheetId="11" r:id="rId4"/>
     <sheet name="设备信息采集" sheetId="17" r:id="rId5"/>
-    <sheet name="Recipe" sheetId="8" state="hidden" r:id="rId6"/>
-    <sheet name="RCMD" sheetId="6" state="hidden" r:id="rId7"/>
-    <sheet name="SECS定义协议" sheetId="10" state="hidden" r:id="rId8"/>
+    <sheet name="问题清单" sheetId="18" r:id="rId6"/>
+    <sheet name="Recipe" sheetId="8" state="hidden" r:id="rId7"/>
+    <sheet name="RCMD" sheetId="6" state="hidden" r:id="rId8"/>
+    <sheet name="SECS定义协议" sheetId="10" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">secs指令!#REF!</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="264">
   <si>
     <t>direction</t>
   </si>
@@ -118,24 +119,108 @@
     <t>sv_description or dv_description</t>
   </si>
   <si>
+    <t>上料打标设备</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>MarkInfo</t>
+  </si>
+  <si>
+    <t>打标dcb</t>
+  </si>
+  <si>
+    <t>ArticleNo</t>
+  </si>
+  <si>
+    <t>Article No.(产品料号）</t>
+  </si>
+  <si>
+    <t>OrderNo</t>
+  </si>
+  <si>
+    <t>Order No.（工单号）</t>
+  </si>
+  <si>
+    <t>LoadTime</t>
+  </si>
+  <si>
+    <t>上料时间</t>
+  </si>
+  <si>
+    <t>DCBBatchNo</t>
+  </si>
+  <si>
+    <r>
+      <t>dcb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>批次号</t>
+    </r>
+  </si>
+  <si>
+    <t>CarrierID</t>
+  </si>
+  <si>
+    <t>托盘号</t>
+  </si>
+  <si>
+    <t>DCBID</t>
+  </si>
+  <si>
+    <t>dcb号</t>
+  </si>
+  <si>
+    <t>IndexID</t>
+  </si>
+  <si>
+    <r>
+      <t>dcb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所在托盘位置号</t>
+    </r>
+  </si>
+  <si>
+    <t>DcbMaterialCode</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DCB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原材料料号</t>
+    </r>
+  </si>
+  <si>
     <t>刷绿漆设备</t>
   </si>
   <si>
-    <t>U4</t>
-  </si>
-  <si>
     <t>Product Process End</t>
   </si>
   <si>
     <t>印刷完成</t>
   </si>
   <si>
-    <t>Article No.(产品料号）</t>
-  </si>
-  <si>
-    <t>Order No.（工单号）</t>
-  </si>
-  <si>
     <t>当前配方</t>
   </si>
   <si>
@@ -160,76 +245,175 @@
     <t>绿油Batch No.</t>
   </si>
   <si>
-    <t>New Lot</t>
+    <t>刷锡膏设备</t>
+  </si>
+  <si>
+    <t>钢网ID</t>
+  </si>
+  <si>
+    <t>锡膏 ID</t>
+  </si>
+  <si>
+    <t>锡膏Batch No.</t>
+  </si>
+  <si>
+    <t>SPI</t>
+  </si>
+  <si>
+    <t>出板事件</t>
+  </si>
+  <si>
+    <t>托盘二维码</t>
+  </si>
+  <si>
+    <t>产品DCB二维码</t>
+  </si>
+  <si>
+    <t>DCB所在托盘穴位</t>
+  </si>
+  <si>
+    <t>DCB检查结果，1：OK,2:NG</t>
+  </si>
+  <si>
+    <t>VID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Control Status</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Process Status</t>
+  </si>
+  <si>
+    <t>当前仅为样例，需根据设备实际参数定义</t>
+  </si>
+  <si>
+    <t>Recipe Number</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>LotNumber</t>
+  </si>
+  <si>
+    <t>FrameSN</t>
+  </si>
+  <si>
+    <t>remote_command</t>
+  </si>
+  <si>
+    <t>remote_command_description</t>
+  </si>
+  <si>
+    <t>param</t>
+  </si>
+  <si>
+    <t>param_description</t>
+  </si>
+  <si>
+    <t>new_lot</t>
   </si>
   <si>
     <t>开工单</t>
   </si>
   <si>
-    <t>Order Quality 生产数量</t>
-  </si>
-  <si>
-    <t>刷锡膏设备</t>
-  </si>
-  <si>
-    <t>钢网ID</t>
-  </si>
-  <si>
-    <t>锡膏 ID</t>
-  </si>
-  <si>
-    <t>锡膏Batch No.</t>
-  </si>
-  <si>
-    <t>VID</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Control Status</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Process Status</t>
-  </si>
-  <si>
-    <t>当前仅为样例，需根据设备实际参数定义</t>
-  </si>
-  <si>
-    <t>Recipe Number</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>LotNumber</t>
-  </si>
-  <si>
-    <t>FrameSN</t>
-  </si>
-  <si>
-    <t>remote_command</t>
-  </si>
-  <si>
-    <t>params</t>
-  </si>
-  <si>
-    <t>description</t>
+    <t>lot_name</t>
+  </si>
+  <si>
+    <t>工单号</t>
+  </si>
+  <si>
+    <t>article_name</t>
+  </si>
+  <si>
+    <t>article号</t>
+  </si>
+  <si>
+    <t>dcb_batch_code</t>
+  </si>
+  <si>
+    <t>dcb批次号</t>
+  </si>
+  <si>
+    <t>dcb_material_code</t>
+  </si>
+  <si>
+    <t>DCB 原材料料号</t>
+  </si>
+  <si>
+    <t>油漆设备</t>
   </si>
   <si>
     <t>PPSELECT</t>
   </si>
   <si>
+    <t>切换配方</t>
+  </si>
+  <si>
     <t>Recipe_Name</t>
   </si>
   <si>
-    <t>切换配方</t>
+    <t>配方名</t>
+  </si>
+  <si>
+    <t>vacuum_carrier_code</t>
+  </si>
+  <si>
+    <t>真空底座</t>
+  </si>
+  <si>
+    <t>nozzle_code</t>
+  </si>
+  <si>
+    <t>吸嘴id</t>
+  </si>
+  <si>
+    <t>silk_code</t>
+  </si>
+  <si>
+    <t>钢网id</t>
+  </si>
+  <si>
+    <t>paint_code</t>
+  </si>
+  <si>
+    <t>油漆号</t>
+  </si>
+  <si>
+    <t>paint_batch_code</t>
+  </si>
+  <si>
+    <t>油漆批次号</t>
+  </si>
+  <si>
+    <t>锡膏设备</t>
+  </si>
+  <si>
+    <t>solder_paste_code</t>
+  </si>
+  <si>
+    <t>锡膏号</t>
+  </si>
+  <si>
+    <t>solder_paste_batch_code</t>
+  </si>
+  <si>
+    <t>锡膏批次号</t>
+  </si>
+  <si>
+    <t>SPI设备</t>
+  </si>
+  <si>
+    <t>PPNAME</t>
   </si>
   <si>
     <t>配方Recipe 1: Mini1</t>
@@ -265,9 +449,6 @@
     <t>下料机</t>
   </si>
   <si>
-    <t>上料时间</t>
-  </si>
-  <si>
     <t>Index ID</t>
   </si>
   <si>
@@ -283,15 +464,52 @@
     <t>扫码的DCB ID</t>
   </si>
   <si>
-    <t>DCB 原材料料号</t>
-  </si>
-  <si>
     <t>储存照片</t>
   </si>
   <si>
     <t>Magazine ID</t>
   </si>
   <si>
+    <t>DCB位置编号</t>
+  </si>
+  <si>
+    <t>焊盘检验结果（Pass or no pass)</t>
+  </si>
+  <si>
+    <t>焊盘体积</t>
+  </si>
+  <si>
+    <t>焊盘面积</t>
+  </si>
+  <si>
+    <t>焊盘偏移</t>
+  </si>
+  <si>
+    <t>焊盘高度</t>
+  </si>
+  <si>
+    <t>上料设备</t>
+  </si>
+  <si>
+    <t>需求描述</t>
+  </si>
+  <si>
+    <t>添加new_lot远程命令，命令参数见remote_commands页</t>
+  </si>
+  <si>
+    <t>打标完成事件缺少loadtime、carriercode、dcbid、dcbindex、dcb_material_code</t>
+  </si>
+  <si>
+    <t>GKG</t>
+  </si>
+  <si>
+    <t>保存数据需求：只需要托盘出站时将托盘码和托盘里面的PCB码及每个PCB结果、下发的工单号和article号通过10311事件传给host即可，host不管控任何进站出站事件
+列出工单号、article号、托盘码、托盘包含的PCB码、托盘包含的PCB码的检测结果对应的sv_id或dv_id</t>
+  </si>
+  <si>
+    <t>设备的所有事件默认是不是已经关联了reportid和sv如果是请列出所有事件关联的报告及报告关联的sv或dv</t>
+  </si>
+  <si>
     <t>功能</t>
   </si>
   <si>
@@ -371,9 +589,6 @@
   </si>
   <si>
     <t>PP-SELECT</t>
-  </si>
-  <si>
-    <t>PPNAME</t>
   </si>
   <si>
     <t>download recipe</t>
@@ -725,7 +940,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -831,11 +1046,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1000,7 +1225,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1046,6 +1271,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,7 +1342,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,7 +1497,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1625,6 +1856,79 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1747,137 +2051,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2104,6 +2408,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2135,46 +2448,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2218,64 +2531,132 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2284,97 +2665,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="16" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="16" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="18" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="18" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="18" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="18" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="18" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2742,102 +3126,102 @@
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D32:D33"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17.1333333333333" style="143" customWidth="1"/>
-    <col min="2" max="2" width="9" style="143"/>
-    <col min="3" max="3" width="27.7333333333333" style="143" customWidth="1"/>
-    <col min="4" max="4" width="4.75833333333333" style="143" customWidth="1"/>
-    <col min="5" max="5" width="17.1333333333333" style="143" customWidth="1"/>
-    <col min="6" max="6" width="9" style="143"/>
-    <col min="7" max="7" width="29.525" style="143" customWidth="1"/>
-    <col min="8" max="8" width="42.5" style="143" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="143"/>
+    <col min="1" max="1" width="17.1333333333333" style="172" customWidth="1"/>
+    <col min="2" max="2" width="9" style="172"/>
+    <col min="3" max="3" width="27.7333333333333" style="172" customWidth="1"/>
+    <col min="4" max="4" width="4.75833333333333" style="172" customWidth="1"/>
+    <col min="5" max="5" width="17.1333333333333" style="172" customWidth="1"/>
+    <col min="6" max="6" width="9" style="172"/>
+    <col min="7" max="7" width="29.525" style="172" customWidth="1"/>
+    <col min="8" max="8" width="42.5" style="172" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="172"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="204" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="174" t="s">
+      <c r="C1" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="175"/>
-      <c r="E1" s="174" t="s">
+      <c r="D1" s="205"/>
+      <c r="E1" s="204" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="174" t="s">
+      <c r="F1" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="174" t="s">
+      <c r="G1" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="174" t="s">
+      <c r="H1" s="204" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:8">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="206" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="206" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="176" t="s">
+      <c r="E2" s="206" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="176" t="s">
+      <c r="F2" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="176"/>
-      <c r="H2" s="177" t="s">
+      <c r="G2" s="206"/>
+      <c r="H2" s="207" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="206" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="176" t="s">
+      <c r="B3" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="176" t="s">
+      <c r="C3" s="206" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="176" t="s">
+      <c r="E3" s="206" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="176" t="s">
+      <c r="F3" s="206" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="176" t="s">
+      <c r="G3" s="206" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="177"/>
+      <c r="H3" s="207"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="176"/>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="E4" s="176" t="s">
+      <c r="A4" s="206"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="206"/>
+      <c r="E4" s="206" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="176" t="s">
+      <c r="F4" s="206" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="176" t="s">
+      <c r="G4" s="206" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="176"/>
+      <c r="H4" s="206"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2849,521 +3233,675 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="143" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="144" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="144" customWidth="1"/>
-    <col min="4" max="4" width="25.75" style="143" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="143" customWidth="1"/>
-    <col min="6" max="6" width="11.1333333333333" style="143" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="143" customWidth="1"/>
-    <col min="8" max="8" width="22.875" style="143" customWidth="1"/>
-    <col min="9" max="9" width="32.75" style="143" customWidth="1"/>
-    <col min="10" max="10" width="34.375" style="143" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="143"/>
+    <col min="1" max="1" width="16.5" style="172" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="174" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="174" customWidth="1"/>
+    <col min="4" max="4" width="29.75" style="172" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="172" customWidth="1"/>
+    <col min="6" max="6" width="11.1333333333333" style="172" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="172" customWidth="1"/>
+    <col min="8" max="8" width="22.875" style="172" customWidth="1"/>
+    <col min="9" max="9" width="32.75" style="172" customWidth="1"/>
+    <col min="10" max="10" width="45.625" style="172" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="172"/>
   </cols>
   <sheetData>
-    <row r="1" s="143" customFormat="1" ht="18.75" spans="1:10">
-      <c r="A1" s="145" t="s">
+    <row r="1" s="172" customFormat="1" ht="18.75" spans="1:10">
+      <c r="A1" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="146" t="s">
+      <c r="C1" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="147" t="s">
+      <c r="D1" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="147" t="s">
+      <c r="E1" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="147" t="s">
+      <c r="F1" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="147" t="s">
+      <c r="G1" s="177" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="147" t="s">
+      <c r="H1" s="177" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="147" t="s">
+      <c r="I1" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="147" t="s">
+      <c r="J1" s="177" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="20.25" spans="1:10">
-      <c r="A2" s="148" t="s">
+    <row r="2" s="173" customFormat="1" ht="20.25" spans="1:10">
+      <c r="A2" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="149">
+      <c r="B2" s="179">
+        <v>107</v>
+      </c>
+      <c r="C2" s="179" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="180" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="180">
+        <v>207</v>
+      </c>
+      <c r="G2" s="182">
+        <v>1012</v>
+      </c>
+      <c r="H2" s="182" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="182"/>
+      <c r="J2" s="191" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" s="173" customFormat="1" ht="20.25" spans="1:10">
+      <c r="A3" s="178"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="182">
+        <v>1013</v>
+      </c>
+      <c r="H3" s="182" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="182"/>
+      <c r="J3" s="191" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" s="173" customFormat="1" ht="18.75" spans="1:10">
+      <c r="A4" s="178"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="183">
+        <v>1014</v>
+      </c>
+      <c r="H4" s="183" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="183"/>
+      <c r="J4" s="201" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" s="173" customFormat="1" ht="18.75" spans="1:10">
+      <c r="A5" s="178"/>
+      <c r="B5" s="179"/>
+      <c r="C5" s="179"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="180"/>
+      <c r="G5" s="182">
+        <v>1015</v>
+      </c>
+      <c r="H5" s="182" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="182"/>
+      <c r="J5" s="182" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" s="173" customFormat="1" ht="18.75" spans="1:10">
+      <c r="A6" s="178"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="180"/>
+      <c r="E6" s="181"/>
+      <c r="F6" s="180"/>
+      <c r="G6" s="184">
+        <v>1016</v>
+      </c>
+      <c r="H6" s="184" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="184"/>
+      <c r="J6" s="202" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" s="173" customFormat="1" ht="18.75" spans="1:10">
+      <c r="A7" s="178"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="180"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="184">
+        <v>1017</v>
+      </c>
+      <c r="H7" s="184" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="184"/>
+      <c r="J7" s="202" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" s="173" customFormat="1" ht="18.75" spans="1:10">
+      <c r="A8" s="178"/>
+      <c r="B8" s="179"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="184">
+        <v>1018</v>
+      </c>
+      <c r="H8" s="184" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="184"/>
+      <c r="J8" s="184" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" s="173" customFormat="1" ht="18.75" spans="1:10">
+      <c r="A9" s="178"/>
+      <c r="B9" s="179"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="184">
+        <v>1019</v>
+      </c>
+      <c r="H9" s="184" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="184"/>
+      <c r="J9" s="184" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" s="173" customFormat="1" ht="18.75" spans="1:10">
+      <c r="A10" s="185"/>
+      <c r="B10" s="186"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="188"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="189"/>
+      <c r="J10" s="189"/>
+    </row>
+    <row r="11" ht="20.25" spans="1:10">
+      <c r="A11" s="190" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="190">
         <v>337</v>
       </c>
-      <c r="C2" s="149" t="s">
+      <c r="C11" s="190" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="150" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="150" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="150">
+      <c r="D11" s="191" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="191" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="191">
         <v>101</v>
       </c>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="150" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" ht="20.25" spans="1:10">
-      <c r="A3" s="152"/>
-      <c r="B3" s="149"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="153">
-        <v>40120</v>
-      </c>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="150" t="s">
+      <c r="G11" s="192">
+        <v>30002</v>
+      </c>
+      <c r="H11" s="192"/>
+      <c r="I11" s="192"/>
+      <c r="J11" s="191" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" ht="20.25" spans="1:10">
-      <c r="A4" s="152"/>
-      <c r="B4" s="149"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="153">
+    <row r="12" ht="20.25" spans="1:10">
+      <c r="A12" s="190"/>
+      <c r="B12" s="190"/>
+      <c r="C12" s="190"/>
+      <c r="D12" s="191"/>
+      <c r="E12" s="191"/>
+      <c r="F12" s="191"/>
+      <c r="G12" s="192">
+        <v>30004</v>
+      </c>
+      <c r="H12" s="192"/>
+      <c r="I12" s="192"/>
+      <c r="J12" s="191" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" ht="20.25" spans="1:10">
+      <c r="A13" s="190"/>
+      <c r="B13" s="190"/>
+      <c r="C13" s="190"/>
+      <c r="D13" s="191"/>
+      <c r="E13" s="191"/>
+      <c r="F13" s="191"/>
+      <c r="G13" s="192">
         <v>10021</v>
       </c>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="150" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" ht="20.25" spans="1:10">
-      <c r="A5" s="152"/>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="151"/>
-      <c r="I5" s="151"/>
-      <c r="J5" s="150" t="s">
+      <c r="H13" s="192"/>
+      <c r="I13" s="192"/>
+      <c r="J13" s="191" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" ht="20.25" spans="1:10">
+      <c r="A14" s="190"/>
+      <c r="B14" s="190"/>
+      <c r="C14" s="190"/>
+      <c r="D14" s="191"/>
+      <c r="E14" s="191"/>
+      <c r="F14" s="191"/>
+      <c r="G14" s="192">
+        <v>40121</v>
+      </c>
+      <c r="H14" s="192"/>
+      <c r="I14" s="192"/>
+      <c r="J14" s="191" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" ht="20.25" spans="1:10">
+      <c r="A15" s="190"/>
+      <c r="B15" s="190"/>
+      <c r="C15" s="190"/>
+      <c r="D15" s="191"/>
+      <c r="E15" s="191"/>
+      <c r="F15" s="191"/>
+      <c r="G15" s="192">
+        <v>40122</v>
+      </c>
+      <c r="H15" s="192"/>
+      <c r="I15" s="192"/>
+      <c r="J15" s="191" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" ht="20.25" spans="1:10">
+      <c r="A16" s="190"/>
+      <c r="B16" s="190"/>
+      <c r="C16" s="190"/>
+      <c r="D16" s="191"/>
+      <c r="E16" s="191"/>
+      <c r="F16" s="191"/>
+      <c r="G16" s="192">
+        <v>40008</v>
+      </c>
+      <c r="H16" s="192"/>
+      <c r="I16" s="192"/>
+      <c r="J16" s="191" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" ht="20.25" spans="1:10">
+      <c r="A17" s="190"/>
+      <c r="B17" s="190"/>
+      <c r="C17" s="190"/>
+      <c r="D17" s="191"/>
+      <c r="E17" s="191"/>
+      <c r="F17" s="191"/>
+      <c r="G17" s="192">
+        <v>40009</v>
+      </c>
+      <c r="H17" s="192"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="191" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" ht="20.25" spans="1:10">
+      <c r="A18" s="190"/>
+      <c r="B18" s="190"/>
+      <c r="C18" s="190"/>
+      <c r="D18" s="191"/>
+      <c r="E18" s="191"/>
+      <c r="F18" s="191"/>
+      <c r="G18" s="192">
+        <v>40009</v>
+      </c>
+      <c r="H18" s="192"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="191" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" ht="20.25" spans="1:10">
+      <c r="A19" s="190"/>
+      <c r="B19" s="190"/>
+      <c r="C19" s="190"/>
+      <c r="D19" s="191"/>
+      <c r="E19" s="191"/>
+      <c r="F19" s="191"/>
+      <c r="G19" s="192">
+        <v>40123</v>
+      </c>
+      <c r="H19" s="192"/>
+      <c r="I19" s="192"/>
+      <c r="J19" s="191" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" ht="20.25" spans="1:10">
+      <c r="A20" s="190"/>
+      <c r="B20" s="190"/>
+      <c r="C20" s="190"/>
+      <c r="D20" s="191"/>
+      <c r="E20" s="191"/>
+      <c r="F20" s="191"/>
+      <c r="G20" s="192">
+        <v>40124</v>
+      </c>
+      <c r="H20" s="192"/>
+      <c r="I20" s="192"/>
+      <c r="J20" s="191" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" ht="20.25" spans="1:10">
+      <c r="A21" s="193"/>
+      <c r="B21" s="193"/>
+      <c r="C21" s="193"/>
+      <c r="D21" s="194"/>
+      <c r="E21" s="194"/>
+      <c r="F21" s="194"/>
+      <c r="G21" s="195"/>
+      <c r="H21" s="195"/>
+      <c r="I21" s="195"/>
+      <c r="J21" s="194"/>
+    </row>
+    <row r="22" ht="20.25" spans="1:10">
+      <c r="A22" s="190" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="190">
+        <v>337</v>
+      </c>
+      <c r="C22" s="190" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="191" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="191" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="191">
+        <v>101</v>
+      </c>
+      <c r="G22" s="192">
+        <v>30002</v>
+      </c>
+      <c r="H22" s="192"/>
+      <c r="I22" s="192"/>
+      <c r="J22" s="191" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" ht="20.25" spans="1:10">
+      <c r="A23" s="190"/>
+      <c r="B23" s="190"/>
+      <c r="C23" s="190"/>
+      <c r="D23" s="191"/>
+      <c r="E23" s="191"/>
+      <c r="F23" s="191"/>
+      <c r="G23" s="192">
+        <v>30004</v>
+      </c>
+      <c r="H23" s="192"/>
+      <c r="I23" s="192"/>
+      <c r="J23" s="191" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" ht="20.25" spans="1:10">
-      <c r="A6" s="152"/>
-      <c r="B6" s="149"/>
-      <c r="C6" s="149"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="150" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" ht="20.25" spans="1:10">
-      <c r="A7" s="152"/>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="153">
+    <row r="24" ht="20.25" spans="1:10">
+      <c r="A24" s="190"/>
+      <c r="B24" s="190"/>
+      <c r="C24" s="190"/>
+      <c r="D24" s="191"/>
+      <c r="E24" s="191"/>
+      <c r="F24" s="191"/>
+      <c r="G24" s="192">
+        <v>10021</v>
+      </c>
+      <c r="H24" s="192"/>
+      <c r="I24" s="192"/>
+      <c r="J24" s="191" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" ht="20.25" spans="1:10">
+      <c r="A25" s="190"/>
+      <c r="B25" s="190"/>
+      <c r="C25" s="190"/>
+      <c r="D25" s="191"/>
+      <c r="E25" s="191"/>
+      <c r="F25" s="191"/>
+      <c r="G25" s="192">
+        <v>40121</v>
+      </c>
+      <c r="H25" s="192"/>
+      <c r="I25" s="192"/>
+      <c r="J25" s="191" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" ht="20.25" spans="1:10">
+      <c r="A26" s="190"/>
+      <c r="B26" s="190"/>
+      <c r="C26" s="190"/>
+      <c r="D26" s="191"/>
+      <c r="E26" s="191"/>
+      <c r="F26" s="191"/>
+      <c r="G26" s="192">
+        <v>40122</v>
+      </c>
+      <c r="H26" s="192"/>
+      <c r="I26" s="192"/>
+      <c r="J26" s="191" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" ht="20.25" spans="1:10">
+      <c r="A27" s="190"/>
+      <c r="B27" s="190"/>
+      <c r="C27" s="190"/>
+      <c r="D27" s="191"/>
+      <c r="E27" s="191"/>
+      <c r="F27" s="191"/>
+      <c r="G27" s="192">
         <v>40008</v>
       </c>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="150" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" ht="20.25" spans="1:10">
-      <c r="A8" s="152"/>
-      <c r="B8" s="149"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="150"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="150"/>
-      <c r="G8" s="153">
+      <c r="H27" s="192"/>
+      <c r="I27" s="192"/>
+      <c r="J27" s="191" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" ht="20.25" spans="1:10">
+      <c r="A28" s="190"/>
+      <c r="B28" s="190"/>
+      <c r="C28" s="190"/>
+      <c r="D28" s="191"/>
+      <c r="E28" s="191"/>
+      <c r="F28" s="191"/>
+      <c r="G28" s="192">
         <v>40009</v>
       </c>
-      <c r="H8" s="153"/>
-      <c r="I8" s="153"/>
-      <c r="J8" s="150" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" ht="20.25" spans="1:10">
-      <c r="A9" s="152"/>
-      <c r="B9" s="149"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="153">
+      <c r="H28" s="192"/>
+      <c r="I28" s="192"/>
+      <c r="J28" s="191" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" ht="20.25" spans="1:10">
+      <c r="A29" s="190"/>
+      <c r="B29" s="190"/>
+      <c r="C29" s="190"/>
+      <c r="D29" s="191"/>
+      <c r="E29" s="191"/>
+      <c r="F29" s="191"/>
+      <c r="G29" s="192">
         <v>40009</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="150" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" ht="20.25" spans="1:10">
-      <c r="A10" s="152"/>
-      <c r="B10" s="149"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="151"/>
-      <c r="H10" s="151"/>
-      <c r="I10" s="151"/>
-      <c r="J10" s="150" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" ht="20.25" spans="1:10">
-      <c r="A11" s="152"/>
-      <c r="B11" s="149"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="151"/>
-      <c r="I11" s="151"/>
-      <c r="J11" s="150" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" ht="20.25" spans="1:10">
-      <c r="A12" s="152"/>
-      <c r="B12" s="154"/>
-      <c r="C12" s="148" t="s">
+      <c r="H29" s="192"/>
+      <c r="I29" s="192"/>
+      <c r="J29" s="191" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" ht="20.25" spans="1:10">
+      <c r="A30" s="190"/>
+      <c r="B30" s="190"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="191"/>
+      <c r="E30" s="191"/>
+      <c r="F30" s="191"/>
+      <c r="G30" s="192">
+        <v>40123</v>
+      </c>
+      <c r="H30" s="192"/>
+      <c r="I30" s="192"/>
+      <c r="J30" s="191" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" ht="20.25" spans="1:10">
+      <c r="A31" s="190"/>
+      <c r="B31" s="190"/>
+      <c r="C31" s="190"/>
+      <c r="D31" s="191"/>
+      <c r="E31" s="191"/>
+      <c r="F31" s="191"/>
+      <c r="G31" s="192">
+        <v>40124</v>
+      </c>
+      <c r="H31" s="192"/>
+      <c r="I31" s="192"/>
+      <c r="J31" s="191" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" ht="20.25" spans="1:10">
+      <c r="A33" s="196" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="197">
+        <v>10311</v>
+      </c>
+      <c r="C33" s="196" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="155" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="155" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="155">
-        <v>102</v>
-      </c>
-      <c r="G12" s="151"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="150" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" ht="20.25" spans="1:10">
-      <c r="A13" s="152"/>
-      <c r="B13" s="156"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="157"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="150" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" ht="20.25" spans="1:10">
-      <c r="A14" s="158"/>
-      <c r="B14" s="159"/>
-      <c r="C14" s="158"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="150" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" ht="20.25" spans="1:10">
-      <c r="A15" s="161"/>
-      <c r="B15" s="161"/>
-      <c r="C15" s="161"/>
-      <c r="D15" s="162"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="162"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-    </row>
-    <row r="16" ht="20.25" spans="1:10">
-      <c r="A16" s="164" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="164">
-        <v>337</v>
-      </c>
-      <c r="C16" s="165" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="166" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="166" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="166">
-        <v>101</v>
-      </c>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="150" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" ht="20.25" spans="1:10">
-      <c r="A17" s="167"/>
-      <c r="B17" s="167"/>
-      <c r="C17" s="165"/>
-      <c r="D17" s="166"/>
-      <c r="E17" s="166"/>
-      <c r="F17" s="166"/>
-      <c r="G17" s="153">
-        <v>40120</v>
-      </c>
-      <c r="H17" s="153"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="150" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" ht="20.25" spans="1:10">
-      <c r="A18" s="167"/>
-      <c r="B18" s="167"/>
-      <c r="C18" s="165"/>
-      <c r="D18" s="166"/>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="153">
-        <v>10021</v>
-      </c>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="150" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" ht="20.25" spans="1:10">
-      <c r="A19" s="167"/>
-      <c r="B19" s="167"/>
-      <c r="C19" s="165"/>
-      <c r="D19" s="166"/>
-      <c r="E19" s="166"/>
-      <c r="F19" s="166"/>
-      <c r="G19" s="151"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="150" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" ht="20.25" spans="1:10">
-      <c r="A20" s="167"/>
-      <c r="B20" s="167"/>
-      <c r="C20" s="165"/>
-      <c r="D20" s="166"/>
-      <c r="E20" s="166"/>
-      <c r="F20" s="166"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="150" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" ht="20.25" spans="1:10">
-      <c r="A21" s="167"/>
-      <c r="B21" s="167"/>
-      <c r="C21" s="165"/>
-      <c r="D21" s="166"/>
-      <c r="E21" s="166"/>
-      <c r="F21" s="166"/>
-      <c r="G21" s="153">
-        <v>40008</v>
-      </c>
-      <c r="H21" s="153"/>
-      <c r="I21" s="153"/>
-      <c r="J21" s="150" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" ht="20.25" spans="1:10">
-      <c r="A22" s="167"/>
-      <c r="B22" s="167"/>
-      <c r="C22" s="165"/>
-      <c r="D22" s="166"/>
-      <c r="E22" s="166"/>
-      <c r="F22" s="166"/>
-      <c r="G22" s="153">
-        <v>40009</v>
-      </c>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="150" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" ht="20.25" spans="1:10">
-      <c r="A23" s="167"/>
-      <c r="B23" s="167"/>
-      <c r="C23" s="165"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="166"/>
-      <c r="F23" s="166"/>
-      <c r="G23" s="153">
-        <v>40009</v>
-      </c>
-      <c r="H23" s="153"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="150" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" ht="20.25" spans="1:10">
-      <c r="A24" s="167"/>
-      <c r="B24" s="167"/>
-      <c r="C24" s="165"/>
-      <c r="D24" s="166"/>
-      <c r="E24" s="166"/>
-      <c r="F24" s="166"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="150" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" ht="20.25" spans="1:10">
-      <c r="A25" s="167"/>
-      <c r="B25" s="167"/>
-      <c r="C25" s="165"/>
-      <c r="D25" s="166"/>
-      <c r="E25" s="166"/>
-      <c r="F25" s="166"/>
-      <c r="G25" s="151"/>
-      <c r="H25" s="151"/>
-      <c r="I25" s="151"/>
-      <c r="J25" s="150" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" ht="20.25" spans="1:10">
-      <c r="A26" s="167"/>
-      <c r="B26" s="168"/>
-      <c r="C26" s="164" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="169" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="169" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="169">
-        <v>102</v>
-      </c>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="150" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" ht="20.25" spans="1:10">
-      <c r="A27" s="167"/>
-      <c r="B27" s="168"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="150" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" ht="20.25" spans="1:10">
-      <c r="A28" s="171"/>
-      <c r="B28" s="172"/>
-      <c r="C28" s="171"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="150" t="s">
-        <v>42</v>
+      <c r="D33" s="198"/>
+      <c r="E33" s="198" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="199"/>
+      <c r="G33" s="200"/>
+      <c r="H33" s="200"/>
+      <c r="I33" s="200"/>
+      <c r="J33" s="203" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" ht="20.25" spans="1:10">
+      <c r="A34" s="196"/>
+      <c r="B34" s="197"/>
+      <c r="C34" s="196"/>
+      <c r="D34" s="198"/>
+      <c r="E34" s="198"/>
+      <c r="F34" s="199"/>
+      <c r="G34" s="200"/>
+      <c r="H34" s="200"/>
+      <c r="I34" s="200"/>
+      <c r="J34" s="203" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" ht="20.25" spans="1:10">
+      <c r="A35" s="196"/>
+      <c r="B35" s="197"/>
+      <c r="C35" s="196"/>
+      <c r="D35" s="198"/>
+      <c r="E35" s="198"/>
+      <c r="F35" s="199"/>
+      <c r="G35" s="200"/>
+      <c r="H35" s="200"/>
+      <c r="I35" s="200"/>
+      <c r="J35" s="203" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" ht="20.25" spans="1:10">
+      <c r="A36" s="196"/>
+      <c r="B36" s="197"/>
+      <c r="C36" s="196"/>
+      <c r="D36" s="198"/>
+      <c r="E36" s="198"/>
+      <c r="F36" s="199"/>
+      <c r="G36" s="200"/>
+      <c r="H36" s="200"/>
+      <c r="I36" s="200"/>
+      <c r="J36" s="203" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A16:A28"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B16:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C16:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D16:D25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E2:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E16:E25"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F16:F25"/>
-    <mergeCell ref="F26:F28"/>
+  <mergeCells count="24">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B11:B20"/>
+    <mergeCell ref="B22:B31"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="C11:C20"/>
+    <mergeCell ref="C22:C31"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="D11:D20"/>
+    <mergeCell ref="D22:D31"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="E11:E20"/>
+    <mergeCell ref="E22:E31"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="F11:F20"/>
+    <mergeCell ref="F22:F31"/>
+    <mergeCell ref="F33:F36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -3383,81 +3921,81 @@
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="2" width="29.3833333333333" customWidth="1"/>
-    <col min="3" max="3" width="5.38333333333333" style="138" customWidth="1"/>
+    <col min="3" max="3" width="5.38333333333333" style="167" customWidth="1"/>
     <col min="4" max="4" width="29.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:3">
-      <c r="A2" s="139">
+      <c r="A2" s="168">
         <v>0</v>
       </c>
-      <c r="B2" s="140" t="s">
-        <v>50</v>
+      <c r="B2" s="169" t="s">
+        <v>70</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:4">
-      <c r="A3" s="139">
+      <c r="A3" s="168">
         <v>1</v>
       </c>
-      <c r="B3" s="140" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="141" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="142" t="s">
-        <v>53</v>
+      <c r="B3" s="169" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="170" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="171" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:4">
       <c r="A4" s="75">
         <v>10</v>
       </c>
-      <c r="B4" s="140" t="s">
-        <v>54</v>
+      <c r="B4" s="169" t="s">
+        <v>74</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="142"/>
+        <v>75</v>
+      </c>
+      <c r="D4" s="171"/>
     </row>
     <row r="5" ht="16.5" spans="1:4">
       <c r="A5" s="75">
         <v>100</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="142"/>
+        <v>75</v>
+      </c>
+      <c r="D5" s="171"/>
     </row>
     <row r="6" ht="16.5" spans="1:4">
       <c r="A6" s="75">
         <v>200</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="142"/>
+        <v>75</v>
+      </c>
+      <c r="D6" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3471,44 +4009,338 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21.7666666666667" customWidth="1"/>
-    <col min="2" max="2" width="32.4333333333333" customWidth="1"/>
-    <col min="3" max="3" width="28.7416666666667" customWidth="1"/>
+    <col min="1" max="1" width="16" style="150" customWidth="1"/>
+    <col min="2" max="2" width="29.375" style="150" customWidth="1"/>
+    <col min="3" max="3" width="23.625" style="150" customWidth="1"/>
+    <col min="4" max="4" width="32.125" style="150" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="150"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="134" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="134" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="135" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="136" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="136" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="137" t="s">
-        <v>63</v>
+    <row r="1" spans="1:4">
+      <c r="A1" s="151" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="151" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="151" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="152" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" s="149" customFormat="1" spans="1:4">
+      <c r="A2" s="153" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="153"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="155"/>
+    </row>
+    <row r="3" s="150" customFormat="1" spans="1:4">
+      <c r="A3" s="156" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="156" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="157" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="157" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" s="150" customFormat="1" spans="1:4">
+      <c r="A4" s="158"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="157" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="157" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" s="150" customFormat="1" spans="1:4">
+      <c r="A5" s="158"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="157" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="157" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" s="150" customFormat="1" spans="1:4">
+      <c r="A6" s="159"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="157" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="157" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" s="149" customFormat="1" spans="1:4">
+      <c r="A7" s="153" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="153"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="155"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="160" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="160" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="160" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="161" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="156" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="156" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="157" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="157" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" s="150" customFormat="1" spans="1:4">
+      <c r="A10" s="158"/>
+      <c r="B10" s="158"/>
+      <c r="C10" s="157" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="157" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" s="150" customFormat="1" spans="1:4">
+      <c r="A11" s="158"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="157" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="157" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" s="150" customFormat="1" spans="1:4">
+      <c r="A12" s="158"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="157" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="157" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" s="150" customFormat="1" spans="1:4">
+      <c r="A13" s="158"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="157" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="157" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" s="150" customFormat="1" spans="1:4">
+      <c r="A14" s="158"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="157" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="157" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" s="150" customFormat="1" spans="1:4">
+      <c r="A15" s="159"/>
+      <c r="B15" s="159"/>
+      <c r="C15" s="157" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="157" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" s="149" customFormat="1" spans="1:4">
+      <c r="A16" s="153" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="153"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="162"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="160" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="160" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="160" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="161" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" s="150" customFormat="1" spans="1:4">
+      <c r="A18" s="163" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="163" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="157" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="157" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" s="150" customFormat="1" spans="1:4">
+      <c r="A19" s="164"/>
+      <c r="B19" s="164"/>
+      <c r="C19" s="157" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="157" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" s="150" customFormat="1" spans="1:4">
+      <c r="A20" s="164"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="157" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="157" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" s="150" customFormat="1" spans="1:4">
+      <c r="A21" s="164"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="157" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="157" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" s="150" customFormat="1" spans="1:4">
+      <c r="A22" s="164"/>
+      <c r="B22" s="164"/>
+      <c r="C22" s="157" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="157" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" s="150" customFormat="1" spans="1:4">
+      <c r="A23" s="164"/>
+      <c r="B23" s="164"/>
+      <c r="C23" s="165" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="157" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" s="150" customFormat="1" spans="1:4">
+      <c r="A24" s="166"/>
+      <c r="B24" s="166"/>
+      <c r="C24" s="165" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="157" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" s="149" customFormat="1" spans="1:4">
+      <c r="A25" s="153" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="153"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="162"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="160" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="160" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="160" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="161" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" s="150" customFormat="1" spans="1:4">
+      <c r="A27" s="163" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="163" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="157" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="157" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="166"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="157" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="157" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="B27:B28"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -3518,680 +4350,756 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14:P23"/>
+      <selection activeCell="R14" sqref="R14:R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.18333333333333" style="76" customWidth="1"/>
-    <col min="2" max="2" width="3.725" style="76" customWidth="1"/>
-    <col min="3" max="3" width="20.9083333333333" style="76" customWidth="1"/>
-    <col min="4" max="4" width="4.45" style="76" customWidth="1"/>
-    <col min="5" max="5" width="12.8166666666667" style="76" customWidth="1"/>
-    <col min="6" max="6" width="11.2666666666667" style="76" customWidth="1"/>
-    <col min="7" max="7" width="4.36666666666667" style="76" customWidth="1"/>
-    <col min="8" max="8" width="24.125" style="76" customWidth="1"/>
-    <col min="9" max="9" width="9" style="76"/>
-    <col min="10" max="10" width="8.45" style="76" customWidth="1"/>
-    <col min="11" max="11" width="9" style="76"/>
-    <col min="12" max="12" width="3.63333333333333" style="76" customWidth="1"/>
-    <col min="13" max="13" width="9" style="76"/>
-    <col min="14" max="14" width="11.1833333333333" style="76" customWidth="1"/>
-    <col min="15" max="15" width="3.81666666666667" style="76" customWidth="1"/>
-    <col min="16" max="16" width="20.9083333333333" style="76" customWidth="1"/>
-    <col min="17" max="17" width="9" style="76"/>
-    <col min="18" max="18" width="4.18333333333333" style="76" customWidth="1"/>
-    <col min="19" max="19" width="22.2666666666667" style="76" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="76"/>
+    <col min="1" max="1" width="4.18333333333333" style="79" customWidth="1"/>
+    <col min="2" max="2" width="3.725" style="79" customWidth="1"/>
+    <col min="3" max="3" width="20.9083333333333" style="79" customWidth="1"/>
+    <col min="4" max="4" width="4.45" style="79" customWidth="1"/>
+    <col min="5" max="5" width="12.8166666666667" style="79" customWidth="1"/>
+    <col min="6" max="6" width="11.2666666666667" style="79" customWidth="1"/>
+    <col min="7" max="7" width="4.36666666666667" style="79" customWidth="1"/>
+    <col min="8" max="8" width="24.125" style="79" customWidth="1"/>
+    <col min="9" max="9" width="9" style="79"/>
+    <col min="10" max="10" width="8.45" style="79" customWidth="1"/>
+    <col min="11" max="11" width="9" style="79"/>
+    <col min="12" max="12" width="3.63333333333333" style="79" customWidth="1"/>
+    <col min="13" max="13" width="9" style="79"/>
+    <col min="14" max="14" width="11.1833333333333" style="79" customWidth="1"/>
+    <col min="15" max="15" width="3.81666666666667" style="79" customWidth="1"/>
+    <col min="16" max="16" width="20.9083333333333" style="79" customWidth="1"/>
+    <col min="17" max="17" width="3.375" style="79" customWidth="1"/>
+    <col min="18" max="18" width="32.75" style="79" customWidth="1"/>
+    <col min="19" max="19" width="4.18333333333333" style="79" customWidth="1"/>
+    <col min="20" max="20" width="22.2666666666667" style="79" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="79"/>
   </cols>
   <sheetData>
-    <row r="1" s="76" customFormat="1" spans="2:16">
-      <c r="B1" s="77" t="s">
+    <row r="1" s="79" customFormat="1" spans="2:17">
+      <c r="B1" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="82"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="83"/>
+    </row>
+    <row r="2" s="79" customFormat="1" spans="2:17">
+      <c r="B2" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="86"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="83"/>
+    </row>
+    <row r="3" s="79" customFormat="1" ht="14.25" spans="2:18">
+      <c r="B3" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="89"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+    </row>
+    <row r="4" s="79" customFormat="1" ht="14.25" spans="1:20">
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
+    </row>
+    <row r="5" s="79" customFormat="1" spans="2:20">
+      <c r="B5" s="90" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="92"/>
+      <c r="F5" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="95"/>
+      <c r="I5" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="J5" s="125" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="126" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" s="127" t="s">
+        <v>123</v>
+      </c>
+      <c r="M5" s="128"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="136" t="s">
+        <v>61</v>
+      </c>
+      <c r="R5" s="136"/>
+      <c r="S5" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="T5" s="92"/>
+    </row>
+    <row r="6" s="79" customFormat="1" spans="2:20">
+      <c r="B6" s="96"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="132"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="134"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="101"/>
+      <c r="Q6" s="137"/>
+      <c r="R6" s="137"/>
+      <c r="S6" s="96"/>
+      <c r="T6" s="98"/>
+    </row>
+    <row r="7" s="79" customFormat="1" spans="2:20">
+      <c r="B7" s="96"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="132"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="134"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="137"/>
+      <c r="R7" s="137"/>
+      <c r="S7" s="96"/>
+      <c r="T7" s="98"/>
+    </row>
+    <row r="8" s="79" customFormat="1" spans="2:20">
+      <c r="B8" s="96"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="131"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="137"/>
+      <c r="R8" s="137"/>
+      <c r="S8" s="96"/>
+      <c r="T8" s="98"/>
+    </row>
+    <row r="9" s="79" customFormat="1" spans="2:20">
+      <c r="B9" s="96"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="137"/>
+      <c r="R9" s="137"/>
+      <c r="S9" s="96"/>
+      <c r="T9" s="98"/>
+    </row>
+    <row r="10" s="79" customFormat="1" spans="2:20">
+      <c r="B10" s="96"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="137"/>
+      <c r="R10" s="137"/>
+      <c r="S10" s="96"/>
+      <c r="T10" s="98"/>
+    </row>
+    <row r="11" s="79" customFormat="1" spans="2:20">
+      <c r="B11" s="96"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="137"/>
+      <c r="R11" s="137"/>
+      <c r="S11" s="96"/>
+      <c r="T11" s="98"/>
+    </row>
+    <row r="12" s="79" customFormat="1" ht="14.25" spans="2:20">
+      <c r="B12" s="102"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="137"/>
+      <c r="R12" s="137"/>
+      <c r="S12" s="102"/>
+      <c r="T12" s="138"/>
+    </row>
+    <row r="13" s="79" customFormat="1" ht="14.25" spans="2:20">
+      <c r="B13" s="104"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="135"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="139"/>
+      <c r="S13" s="135"/>
+      <c r="T13" s="109"/>
+    </row>
+    <row r="14" s="79" customFormat="1" spans="2:20">
+      <c r="B14" s="110">
+        <v>1</v>
+      </c>
+      <c r="C14" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="112">
+        <v>1</v>
+      </c>
+      <c r="E14" s="113" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="114"/>
+      <c r="G14" s="110">
+        <v>1</v>
+      </c>
+      <c r="H14" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="84"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="110">
+        <v>1</v>
+      </c>
+      <c r="M14" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="113"/>
+      <c r="O14" s="110">
+        <v>1</v>
+      </c>
+      <c r="P14" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="140">
+        <v>1</v>
+      </c>
+      <c r="R14" s="141" t="s">
+        <v>31</v>
+      </c>
+      <c r="S14" s="112">
+        <v>1</v>
+      </c>
+      <c r="T14" s="113" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" s="79" customFormat="1" spans="2:20">
+      <c r="B15" s="84">
+        <v>2</v>
+      </c>
+      <c r="C15" s="115" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="116">
+        <v>2</v>
+      </c>
+      <c r="E15" s="117" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="114"/>
+      <c r="G15" s="84">
+        <v>2</v>
+      </c>
+      <c r="H15" s="117" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="84"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="118">
+        <v>2</v>
+      </c>
+      <c r="M15" s="115" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="117"/>
+      <c r="O15" s="84">
+        <v>2</v>
+      </c>
+      <c r="P15" s="115" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="142">
+        <v>2</v>
+      </c>
+      <c r="R15" s="143" t="s">
+        <v>33</v>
+      </c>
+      <c r="S15" s="85">
+        <v>2</v>
+      </c>
+      <c r="T15" s="117" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" s="79" customFormat="1" spans="2:20">
+      <c r="B16" s="118">
+        <v>3</v>
+      </c>
+      <c r="C16" s="115" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="85">
+        <v>3</v>
+      </c>
+      <c r="E16" s="119" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="114"/>
+      <c r="G16" s="118">
+        <v>3</v>
+      </c>
+      <c r="H16" s="117" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="84"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="118">
+        <v>3</v>
+      </c>
+      <c r="M16" s="115" t="s">
+        <v>127</v>
+      </c>
+      <c r="N16" s="117"/>
+      <c r="O16" s="118">
+        <v>3</v>
+      </c>
+      <c r="P16" s="115" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q16" s="144">
+        <v>3</v>
+      </c>
+      <c r="R16" s="143" t="s">
+        <v>126</v>
+      </c>
+      <c r="S16" s="116">
+        <v>3</v>
+      </c>
+      <c r="T16" s="117" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" s="79" customFormat="1" spans="2:20">
+      <c r="B17" s="84">
+        <v>4</v>
+      </c>
+      <c r="C17" s="115" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="116"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="84">
+        <v>4</v>
+      </c>
+      <c r="H17" s="117" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="84"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="118">
+        <v>4</v>
+      </c>
+      <c r="M17" s="115" t="s">
+        <v>129</v>
+      </c>
+      <c r="N17" s="117"/>
+      <c r="O17" s="84">
+        <v>4</v>
+      </c>
+      <c r="P17" s="115" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q17" s="144">
+        <v>4</v>
+      </c>
+      <c r="R17" s="143" t="s">
+        <v>63</v>
+      </c>
+      <c r="S17" s="85">
+        <v>4</v>
+      </c>
+      <c r="T17" s="117" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" s="79" customFormat="1" spans="2:20">
+      <c r="B18" s="84">
+        <v>5</v>
+      </c>
+      <c r="C18" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="116"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="84">
+        <v>5</v>
+      </c>
+      <c r="H18" s="117" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="84"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="118">
+        <v>5</v>
+      </c>
+      <c r="M18" s="115" t="s">
+        <v>130</v>
+      </c>
+      <c r="N18" s="117"/>
+      <c r="O18" s="84">
+        <v>5</v>
+      </c>
+      <c r="P18" s="115" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q18" s="142">
+        <v>5</v>
+      </c>
+      <c r="R18" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="79"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="P1" s="79"/>
-    </row>
-    <row r="2" s="76" customFormat="1" spans="2:16">
-      <c r="B2" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="83"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" s="83"/>
-    </row>
-    <row r="3" s="76" customFormat="1" ht="14.25" spans="2:17">
-      <c r="B3" s="84" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="84" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="86"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="84" t="s">
-        <v>66</v>
-      </c>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="80"/>
-    </row>
-    <row r="4" s="76" customFormat="1" ht="14.25" spans="1:19">
-      <c r="A4" s="80"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-    </row>
-    <row r="5" s="76" customFormat="1" spans="2:19">
-      <c r="B5" s="87" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" s="122" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" s="123" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" s="124" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" s="125"/>
-      <c r="N5" s="126"/>
-      <c r="O5" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="R5" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="S5" s="89"/>
-    </row>
-    <row r="6" s="76" customFormat="1" spans="2:19">
-      <c r="B6" s="93"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="130"/>
-      <c r="N6" s="131"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="93"/>
-      <c r="S6" s="95"/>
-    </row>
-    <row r="7" s="76" customFormat="1" spans="2:19">
-      <c r="B7" s="93"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="130"/>
-      <c r="N7" s="131"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="95"/>
-    </row>
-    <row r="8" s="76" customFormat="1" spans="2:19">
-      <c r="B8" s="93"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="127"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="93"/>
-      <c r="S8" s="95"/>
-    </row>
-    <row r="9" s="76" customFormat="1" spans="2:19">
-      <c r="B9" s="93"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="95"/>
-    </row>
-    <row r="10" s="76" customFormat="1" spans="2:19">
-      <c r="B10" s="93"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="93"/>
-      <c r="S10" s="95"/>
-    </row>
-    <row r="11" s="76" customFormat="1" spans="2:19">
-      <c r="B11" s="93"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="93"/>
-      <c r="S11" s="95"/>
-    </row>
-    <row r="12" s="76" customFormat="1" ht="14.25" spans="2:19">
-      <c r="B12" s="99"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="99"/>
-      <c r="S12" s="133"/>
-    </row>
-    <row r="13" s="76" customFormat="1" ht="14.25" spans="2:19">
-      <c r="B13" s="101"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="132"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="105"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="105"/>
-      <c r="S13" s="106"/>
-    </row>
-    <row r="14" s="76" customFormat="1" spans="2:19">
-      <c r="B14" s="107">
-        <v>1</v>
-      </c>
-      <c r="C14" s="108" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="109">
-        <v>1</v>
-      </c>
-      <c r="E14" s="110" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="111"/>
-      <c r="G14" s="107">
-        <v>1</v>
-      </c>
-      <c r="H14" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="81"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="107">
-        <v>1</v>
-      </c>
-      <c r="M14" s="108" t="s">
-        <v>30</v>
-      </c>
-      <c r="N14" s="110"/>
-      <c r="O14" s="107">
-        <v>1</v>
-      </c>
-      <c r="P14" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="107">
-        <v>1</v>
-      </c>
-      <c r="S14" s="110" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" s="76" customFormat="1" spans="2:19">
-      <c r="B15" s="81">
-        <v>2</v>
-      </c>
-      <c r="C15" s="112" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="113">
-        <v>2</v>
-      </c>
-      <c r="E15" s="114" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="111"/>
-      <c r="G15" s="81">
-        <v>2</v>
-      </c>
-      <c r="H15" s="114" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="81"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="115">
-        <v>2</v>
-      </c>
-      <c r="M15" s="112" t="s">
-        <v>31</v>
-      </c>
-      <c r="N15" s="114"/>
-      <c r="O15" s="81">
-        <v>2</v>
-      </c>
-      <c r="P15" s="114" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="81">
-        <v>2</v>
-      </c>
-      <c r="S15" s="114" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" s="76" customFormat="1" spans="2:19">
-      <c r="B16" s="115">
-        <v>3</v>
-      </c>
-      <c r="C16" s="112" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="82">
-        <v>3</v>
-      </c>
-      <c r="E16" s="116" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="111"/>
-      <c r="G16" s="115">
-        <v>3</v>
-      </c>
-      <c r="H16" s="114" t="s">
-        <v>77</v>
-      </c>
-      <c r="I16" s="81"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="115">
-        <v>3</v>
-      </c>
-      <c r="M16" s="112" t="s">
-        <v>78</v>
-      </c>
-      <c r="N16" s="114"/>
-      <c r="O16" s="115">
-        <v>3</v>
-      </c>
-      <c r="P16" s="114" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="115">
-        <v>3</v>
-      </c>
-      <c r="S16" s="114" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" s="76" customFormat="1" spans="2:19">
-      <c r="B17" s="81">
-        <v>4</v>
-      </c>
-      <c r="C17" s="112" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="113"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="81">
-        <v>4</v>
-      </c>
-      <c r="H17" s="114" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="81"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="115">
-        <v>4</v>
-      </c>
-      <c r="M17" s="112" t="s">
-        <v>80</v>
-      </c>
-      <c r="N17" s="114"/>
-      <c r="O17" s="81">
-        <v>4</v>
-      </c>
-      <c r="P17" s="114" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81">
-        <v>4</v>
-      </c>
-      <c r="S17" s="114" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" s="76" customFormat="1" spans="2:19">
-      <c r="B18" s="81">
+      <c r="S18" s="116">
         <v>5</v>
       </c>
-      <c r="C18" s="112" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="113"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="81">
-        <v>5</v>
-      </c>
-      <c r="H18" s="114" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="81"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="115">
-        <v>5</v>
-      </c>
-      <c r="M18" s="112" t="s">
-        <v>82</v>
-      </c>
-      <c r="N18" s="114"/>
-      <c r="O18" s="81">
-        <v>5</v>
-      </c>
-      <c r="P18" s="114" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="115">
-        <v>5</v>
-      </c>
-      <c r="S18" s="114" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" s="76" customFormat="1" spans="2:19">
-      <c r="B19" s="117"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="115">
+      <c r="T18" s="117" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" s="79" customFormat="1" spans="2:20">
+      <c r="B19" s="120"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="118">
         <v>6</v>
       </c>
-      <c r="H19" s="114" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="81"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="112"/>
-      <c r="N19" s="114"/>
-      <c r="O19" s="115">
+      <c r="H19" s="117" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="84"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="118">
         <v>6</v>
       </c>
-      <c r="P19" s="114" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="117"/>
-      <c r="S19" s="114"/>
-    </row>
-    <row r="20" s="76" customFormat="1" spans="2:19">
-      <c r="B20" s="117"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="81">
+      <c r="P19" s="115" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q19" s="144">
+        <v>6</v>
+      </c>
+      <c r="R19" s="143" t="s">
+        <v>132</v>
+      </c>
+      <c r="S19" s="115"/>
+      <c r="T19" s="117"/>
+    </row>
+    <row r="20" s="79" customFormat="1" spans="2:20">
+      <c r="B20" s="120"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="84">
         <v>7</v>
       </c>
-      <c r="H20" s="114" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="81"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="112"/>
-      <c r="N20" s="114"/>
-      <c r="O20" s="81">
+      <c r="H20" s="117" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="84"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="84">
         <v>7</v>
       </c>
-      <c r="P20" s="114" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q20" s="81"/>
-      <c r="R20" s="117"/>
-      <c r="S20" s="114"/>
-    </row>
-    <row r="21" s="76" customFormat="1" spans="2:19">
-      <c r="B21" s="117"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="115">
+      <c r="P20" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q20" s="144">
+        <v>7</v>
+      </c>
+      <c r="R20" s="143" t="s">
+        <v>133</v>
+      </c>
+      <c r="S20" s="115"/>
+      <c r="T20" s="117"/>
+    </row>
+    <row r="21" s="79" customFormat="1" spans="2:20">
+      <c r="B21" s="120"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="118">
         <v>8</v>
       </c>
-      <c r="H21" s="114" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="81"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="112"/>
-      <c r="N21" s="114"/>
-      <c r="O21" s="115">
+      <c r="H21" s="117" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="84"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="117"/>
+      <c r="O21" s="118">
         <v>8</v>
       </c>
-      <c r="P21" s="114" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q21" s="81"/>
-      <c r="R21" s="117"/>
-      <c r="S21" s="114"/>
-    </row>
-    <row r="22" s="76" customFormat="1" spans="2:19">
-      <c r="B22" s="117"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="81">
+      <c r="P21" s="115" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q21" s="142">
+        <v>8</v>
+      </c>
+      <c r="R21" s="143" t="s">
+        <v>134</v>
+      </c>
+      <c r="S21" s="115"/>
+      <c r="T21" s="117"/>
+    </row>
+    <row r="22" s="79" customFormat="1" ht="14.25" spans="2:20">
+      <c r="B22" s="120"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="84">
         <v>9</v>
       </c>
-      <c r="H22" s="114" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="81"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="115"/>
-      <c r="M22" s="112"/>
-      <c r="N22" s="114"/>
-      <c r="O22" s="81">
+      <c r="H22" s="117" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="84"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="84">
         <v>9</v>
       </c>
-      <c r="P22" s="114" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="117"/>
-      <c r="S22" s="114"/>
-    </row>
-    <row r="23" s="76" customFormat="1" ht="14.25" spans="2:19">
-      <c r="B23" s="118"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="84">
+      <c r="P22" s="115" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q22" s="144">
+        <v>9</v>
+      </c>
+      <c r="R22" s="143" t="s">
+        <v>135</v>
+      </c>
+      <c r="S22" s="115"/>
+      <c r="T22" s="117"/>
+    </row>
+    <row r="23" s="79" customFormat="1" ht="14.25" spans="2:20">
+      <c r="B23" s="121"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="87">
         <v>10</v>
       </c>
-      <c r="H23" s="120" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="84"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="119"/>
-      <c r="N23" s="120"/>
-      <c r="O23" s="84">
+      <c r="H23" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="87"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="121"/>
+      <c r="M23" s="122"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="87">
         <v>10</v>
       </c>
-      <c r="P23" s="120" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="118"/>
-      <c r="S23" s="120"/>
+      <c r="P23" s="122" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q23" s="144">
+        <v>10</v>
+      </c>
+      <c r="R23" s="145" t="s">
+        <v>136</v>
+      </c>
+      <c r="S23" s="122"/>
+      <c r="T23" s="123"/>
+    </row>
+    <row r="24" spans="17:18">
+      <c r="Q24" s="146">
+        <v>11</v>
+      </c>
+      <c r="R24" s="147" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="17:18">
+      <c r="Q25" s="116"/>
+      <c r="R25" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -4204,11 +5112,12 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="O3:P3"/>
-    <mergeCell ref="A4:S4"/>
+    <mergeCell ref="A4:T4"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="L13:N13"/>
     <mergeCell ref="O13:P13"/>
-    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="M16:N16"/>
@@ -4223,10 +5132,7 @@
     <mergeCell ref="J9:J23"/>
     <mergeCell ref="K5:K8"/>
     <mergeCell ref="K9:K23"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="Q7:Q23"/>
     <mergeCell ref="B5:C12"/>
-    <mergeCell ref="R5:S12"/>
     <mergeCell ref="D5:E8"/>
     <mergeCell ref="G5:H8"/>
     <mergeCell ref="O5:P8"/>
@@ -4235,6 +5141,8 @@
     <mergeCell ref="D9:E12"/>
     <mergeCell ref="G9:H12"/>
     <mergeCell ref="O9:P12"/>
+    <mergeCell ref="Q5:R12"/>
+    <mergeCell ref="S5:T12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4242,6 +5150,94 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="139.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="77">
+        <v>1</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="77">
+        <v>2</v>
+      </c>
+      <c r="B3" s="77" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="76" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="77"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="77">
+        <v>1</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="77"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="77">
+        <v>1</v>
+      </c>
+      <c r="B7" s="77" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" ht="27" spans="1:2">
+      <c r="A8" s="77">
+        <v>2</v>
+      </c>
+      <c r="B8" s="78" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="77">
+        <v>3</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:F9"/>
@@ -4261,41 +5257,41 @@
   <sheetData>
     <row r="1" ht="21" spans="1:5">
       <c r="A1" s="74" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="B1" s="74" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="D1" s="74" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="E1" s="74" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" ht="21" spans="1:5">
       <c r="A2" s="74" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="E2" s="75" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" ht="21" spans="1:5">
       <c r="A3" s="74" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="B3" s="14">
         <v>5</v>
@@ -4312,44 +5308,44 @@
     </row>
     <row r="4" ht="21" spans="1:6">
       <c r="A4" s="74" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="E4" s="75" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" ht="21" spans="1:5">
       <c r="A5" s="74" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="E5" s="75" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" ht="21" spans="1:5">
       <c r="A6" s="74" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="B6" s="14">
         <v>1</v>
@@ -4366,22 +5362,22 @@
     </row>
     <row r="7" ht="21" spans="1:5">
       <c r="A7" s="74" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="75" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" ht="21" spans="1:5">
       <c r="A8" s="74" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="B8" s="75">
         <v>0</v>
@@ -4398,7 +5394,7 @@
     </row>
     <row r="9" ht="21" spans="1:5">
       <c r="A9" s="74" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="B9" s="75">
         <v>0</v>
@@ -4419,7 +5415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G21"/>
@@ -4441,13 +5437,13 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="53" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="D1" s="56"/>
       <c r="E1" s="57"/>
@@ -4460,16 +5456,16 @@
       <c r="A2" s="59"/>
       <c r="B2" s="60"/>
       <c r="C2" s="61" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="F2" s="62" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="G2" s="63"/>
     </row>
@@ -4478,23 +5474,23 @@
         <v>4000</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D3" s="66"/>
       <c r="E3" s="67"/>
       <c r="F3" s="64"/>
       <c r="G3" s="67" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="64"/>
       <c r="B4" s="68"/>
       <c r="C4" s="66" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="D4" s="66"/>
       <c r="E4" s="67"/>
@@ -4506,16 +5502,16 @@
         <v>4001</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="D5" s="66"/>
       <c r="E5" s="67"/>
       <c r="F5" s="64"/>
       <c r="G5" s="67" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4523,23 +5519,23 @@
         <v>4002</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="D6" s="66"/>
       <c r="E6" s="67"/>
       <c r="F6" s="64"/>
       <c r="G6" s="69" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="71"/>
       <c r="B7" s="68"/>
       <c r="C7" s="66" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="D7" s="66"/>
       <c r="E7" s="67"/>
@@ -4550,10 +5546,10 @@
       <c r="A8" s="71"/>
       <c r="B8" s="68"/>
       <c r="C8" s="66" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="E8" s="67"/>
       <c r="F8" s="64"/>
@@ -4563,7 +5559,7 @@
       <c r="A9" s="72"/>
       <c r="B9" s="73"/>
       <c r="C9" s="66" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="D9" s="66"/>
       <c r="E9" s="66"/>
@@ -4575,13 +5571,13 @@
         <v>4003</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="D10" s="66" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="E10" s="66"/>
       <c r="F10" s="66"/>
@@ -4591,10 +5587,10 @@
       <c r="A11" s="72"/>
       <c r="B11" s="73"/>
       <c r="C11" s="66" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="D11" s="66" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="E11" s="66"/>
       <c r="F11" s="66"/>
@@ -4605,10 +5601,10 @@
         <v>4004</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="C12" s="66" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="D12" s="66"/>
       <c r="E12" s="66"/>
@@ -4619,7 +5615,7 @@
       <c r="A13" s="72"/>
       <c r="B13" s="73"/>
       <c r="C13" s="66" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="D13" s="66"/>
       <c r="E13" s="66"/>
@@ -4631,10 +5627,10 @@
         <v>4005</v>
       </c>
       <c r="B14" s="70" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="C14" s="66" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="D14" s="66"/>
       <c r="E14" s="66"/>
@@ -4645,7 +5641,7 @@
       <c r="A15" s="72"/>
       <c r="B15" s="73"/>
       <c r="C15" s="66" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="D15" s="66"/>
       <c r="E15" s="66"/>
@@ -4657,10 +5653,10 @@
         <v>4006</v>
       </c>
       <c r="B16" s="70" t="s">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="D16" s="66"/>
       <c r="E16" s="66"/>
@@ -4671,7 +5667,7 @@
       <c r="A17" s="72"/>
       <c r="B17" s="73"/>
       <c r="C17" s="66" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="D17" s="66"/>
       <c r="E17" s="66"/>
@@ -4683,10 +5679,10 @@
         <v>4007</v>
       </c>
       <c r="B18" s="70" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="D18" s="66"/>
       <c r="E18" s="66"/>
@@ -4697,7 +5693,7 @@
       <c r="A19" s="72"/>
       <c r="B19" s="73"/>
       <c r="C19" s="66" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="D19" s="66"/>
       <c r="E19" s="66"/>
@@ -4709,10 +5705,10 @@
         <v>4008</v>
       </c>
       <c r="B20" s="70" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="C20" s="66" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="D20" s="66"/>
       <c r="E20" s="67"/>
@@ -4723,7 +5719,7 @@
       <c r="A21" s="72"/>
       <c r="B21" s="73"/>
       <c r="C21" s="66" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="D21" s="66"/>
       <c r="E21" s="67"/>
@@ -4761,7 +5757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="D1:N55"/>
@@ -4788,27 +5784,27 @@
   <sheetData>
     <row r="1" ht="21.75" spans="4:4">
       <c r="D1" s="2" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="4:9">
       <c r="D2" s="3" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>139</v>
+        <v>199</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="4:9">
@@ -4816,7 +5812,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="F3" s="7">
         <v>1</v>
@@ -4825,10 +5821,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="4:9">
@@ -4837,7 +5833,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="8" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
       <c r="I4" s="41"/>
     </row>
@@ -4847,7 +5843,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="8" t="s">
-        <v>144</v>
+        <v>204</v>
       </c>
       <c r="I5" s="41"/>
     </row>
@@ -4857,7 +5853,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="8" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="I6" s="41"/>
     </row>
@@ -4867,7 +5863,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="8" t="s">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="I7" s="42"/>
     </row>
@@ -4876,7 +5872,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="F8" s="7">
         <v>2</v>
@@ -4885,16 +5881,16 @@
         <v>2</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K8" s="43" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="M8" s="44"/>
     </row>
@@ -4904,17 +5900,17 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="8" t="s">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="I9" s="41"/>
       <c r="K9" s="14">
         <v>1</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="M9" s="45" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="4:13">
@@ -4923,13 +5919,13 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="8" t="s">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="I10" s="41"/>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="M10" s="45" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="4:13">
@@ -4938,13 +5934,13 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="8" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="I11" s="42"/>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
       <c r="M11" s="45" t="s">
-        <v>144</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="4:13">
@@ -4952,7 +5948,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="F12" s="12">
         <v>3</v>
@@ -4961,15 +5957,15 @@
         <v>3</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
       <c r="M12" s="45" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="4:13">
@@ -4977,7 +5973,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="F13" s="15">
         <v>4</v>
@@ -4986,15 +5982,15 @@
         <v>4</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="46" t="s">
-        <v>146</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="4:13">
@@ -5005,19 +6001,19 @@
         <v>5</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="K14" s="14">
         <v>2</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="M14" s="45" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="4:13">
@@ -5025,7 +6021,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="F15" s="15">
         <v>5</v>
@@ -5034,15 +6030,15 @@
         <v>4</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
       <c r="M15" s="45" t="s">
-        <v>149</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="4:13">
@@ -5053,15 +6049,15 @@
         <v>5</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
       <c r="M16" s="45" t="s">
-        <v>150</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="4:13">
@@ -5072,15 +6068,15 @@
         <v>6</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="46" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="4:13">
@@ -5088,7 +6084,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="F18" s="15">
         <v>6</v>
@@ -5097,19 +6093,19 @@
         <v>4</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="K18" s="11">
         <v>3</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
       <c r="M18" s="46" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="4:13">
@@ -5117,7 +6113,7 @@
         <v>7</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
@@ -5127,10 +6123,10 @@
         <v>4</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="M19" s="46" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="4:9">
@@ -5138,7 +6134,7 @@
         <v>8</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="F20" s="15">
         <v>8</v>
@@ -5147,10 +6143,10 @@
         <v>8</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="4:9">
@@ -5158,7 +6154,7 @@
         <v>9</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -5170,7 +6166,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="F22" s="16">
         <v>10</v>
@@ -5179,10 +6175,10 @@
         <v>10</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>170</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="4:9">
@@ -5209,16 +6205,16 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="K25" s="47" t="s">
-        <v>171</v>
+        <v>231</v>
       </c>
       <c r="L25" s="48" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="M25" s="48" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="N25" s="48" t="s">
-        <v>173</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" ht="32.25" spans="4:14">
@@ -5229,40 +6225,40 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="K26" s="49" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="L26" s="50" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
       <c r="M26" s="50"/>
       <c r="N26" s="50" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="4:14">
       <c r="D27" s="11"/>
       <c r="E27" s="16" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="K27" s="49" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="L27" s="50" t="s">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="M27" s="50"/>
       <c r="N27" s="50" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="4:9">
       <c r="D28" s="23"/>
       <c r="E28" s="16" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -5272,45 +6268,45 @@
     <row r="37" ht="14.25"/>
     <row r="38" ht="16.5" spans="4:10">
       <c r="D38" s="24" t="s">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="I38" s="51" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="J38" s="52" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" ht="16.5" spans="4:10">
       <c r="D39" s="27" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c r="H39" s="11">
         <v>1</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="J39" s="12">
         <v>2</v>
@@ -5320,14 +6316,14 @@
       <c r="D40" s="30"/>
       <c r="E40" s="31"/>
       <c r="F40" s="29" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="G40" s="31"/>
       <c r="H40" s="11">
         <v>2</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="J40" s="12">
         <v>2</v>
@@ -5337,7 +6333,7 @@
       <c r="D41" s="30"/>
       <c r="E41" s="31"/>
       <c r="F41" s="32" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="G41" s="31"/>
     </row>
@@ -5345,7 +6341,7 @@
       <c r="D42" s="30"/>
       <c r="E42" s="31"/>
       <c r="F42" s="33" t="s">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="G42" s="31"/>
     </row>
@@ -5353,7 +6349,7 @@
       <c r="D43" s="30"/>
       <c r="E43" s="31"/>
       <c r="F43" s="33" t="s">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="G43" s="31"/>
     </row>
@@ -5361,7 +6357,7 @@
       <c r="D44" s="30"/>
       <c r="E44" s="31"/>
       <c r="F44" s="33" t="s">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="G44" s="31"/>
     </row>
@@ -5369,7 +6365,7 @@
       <c r="D45" s="30"/>
       <c r="E45" s="31"/>
       <c r="F45" s="33" t="s">
-        <v>194</v>
+        <v>254</v>
       </c>
       <c r="G45" s="31"/>
     </row>
@@ -5377,7 +6373,7 @@
       <c r="D46" s="30"/>
       <c r="E46" s="31"/>
       <c r="F46" s="33" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="G46" s="31"/>
     </row>
@@ -5385,7 +6381,7 @@
       <c r="D47" s="30"/>
       <c r="E47" s="31"/>
       <c r="F47" s="33" t="s">
-        <v>196</v>
+        <v>256</v>
       </c>
       <c r="G47" s="31"/>
     </row>
@@ -5393,7 +6389,7 @@
       <c r="D48" s="30"/>
       <c r="E48" s="31"/>
       <c r="F48" s="33" t="s">
-        <v>197</v>
+        <v>257</v>
       </c>
       <c r="G48" s="31"/>
     </row>
@@ -5401,7 +6397,7 @@
       <c r="D49" s="30"/>
       <c r="E49" s="31"/>
       <c r="F49" s="33" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="G49" s="31"/>
     </row>
@@ -5409,7 +6405,7 @@
       <c r="D50" s="30"/>
       <c r="E50" s="31"/>
       <c r="F50" s="33" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="G50" s="31"/>
     </row>
@@ -5417,7 +6413,7 @@
       <c r="D51" s="30"/>
       <c r="E51" s="31"/>
       <c r="F51" s="33" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="G51" s="31"/>
     </row>
@@ -5425,23 +6421,23 @@
       <c r="D52" s="34"/>
       <c r="E52" s="35"/>
       <c r="F52" s="36" t="s">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c r="G52" s="35"/>
     </row>
     <row r="53" ht="21" spans="4:4">
       <c r="D53" s="37" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" ht="15.75" spans="4:4">
       <c r="D54" s="38" t="s">
-        <v>185</v>
+        <v>245</v>
       </c>
     </row>
     <row r="55" ht="15.75" spans="4:4">
       <c r="D55" s="39" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
